--- a/src/Quadrotor_States4.xlsx
+++ b/src/Quadrotor_States4.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,692 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10.000047391785161</v>
+        <v>280.1247488537091</v>
       </c>
       <c r="B2">
-        <v>2.4369926260738155</v>
+        <v>249.9546369302109</v>
       </c>
       <c r="C2">
-        <v>5.04706865309166</v>
+        <v>12.615804662360722</v>
       </c>
       <c r="D2">
-        <v>0.9999810563089401</v>
+        <v>1.0000008945847576</v>
       </c>
       <c r="E2">
-        <v>0.004158259540089768</v>
+        <v>0.00040480522121395866</v>
       </c>
       <c r="F2">
-        <v>8.385010233963145e-7</v>
+        <v>0.0011132349980832019</v>
       </c>
       <c r="G2">
-        <v>-3.735654895407616e-5</v>
+        <v>-3.494071422428927e-8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10.000019756659972</v>
+        <v>280.15211017644253</v>
       </c>
       <c r="B3">
-        <v>1.3570814624465306</v>
+        <v>250.05194917772965</v>
       </c>
       <c r="C3">
-        <v>4.939648409916111</v>
+        <v>15.235510915750138</v>
       </c>
       <c r="D3">
-        <v>0.999937858261303</v>
+        <v>1.0000006060013213</v>
       </c>
       <c r="E3">
-        <v>-0.004413201473780387</v>
+        <v>-0.00038183998354401937</v>
       </c>
       <c r="F3">
-        <v>-5.074522943032328e-6</v>
+        <v>0.00010736165393718273</v>
       </c>
       <c r="G3">
-        <v>0.00022787271988117556</v>
+        <v>-2.0393661507537454e-9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9.999822553512551</v>
+        <v>280.04999921363384</v>
       </c>
       <c r="B4">
-        <v>3.018214620588382</v>
+        <v>250.20032401762833</v>
       </c>
       <c r="C4">
-        <v>4.899696627066606</v>
+        <v>17.846614533894854</v>
       </c>
       <c r="D4">
-        <v>0.9999704496133636</v>
+        <v>1.000000615815106</v>
       </c>
       <c r="E4">
-        <v>0.005149535323368106</v>
+        <v>-0.0008495310975070662</v>
       </c>
       <c r="F4">
-        <v>-8.705193137629054e-6</v>
+        <v>-0.0005828468132549169</v>
       </c>
       <c r="G4">
-        <v>0.003402754425042281</v>
+        <v>2.398559881343785e-5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9.999926998354074</v>
+        <v>279.9395515226869</v>
       </c>
       <c r="B5">
-        <v>2.8168278820869532</v>
+        <v>250.36081737203833</v>
       </c>
       <c r="C5">
-        <v>4.883373427992974</v>
+        <v>20.45603388790374</v>
       </c>
       <c r="D5">
-        <v>0.9999983550573321</v>
+        <v>1.0000005109316514</v>
       </c>
       <c r="E5">
-        <v>-0.0014215673912535685</v>
+        <v>-0.0007794900748731351</v>
       </c>
       <c r="F5">
-        <v>5.0042680629685e-5</v>
+        <v>-0.0005356473912669328</v>
       </c>
       <c r="G5">
-        <v>-0.013246967578979554</v>
+        <v>2.1196835566049258e-5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10.000163499251743</v>
+        <v>279.82135609947073</v>
       </c>
       <c r="B6">
-        <v>3.7827888072637434</v>
+        <v>250.53256925837456</v>
       </c>
       <c r="C6">
-        <v>4.8805742207459675</v>
+        <v>23.063126964948943</v>
       </c>
       <c r="D6">
-        <v>1.0000103933817477</v>
+        <v>1.0000005012197837</v>
       </c>
       <c r="E6">
-        <v>6.519600017853091e-5</v>
+        <v>-0.0009323087217153497</v>
       </c>
       <c r="F6">
-        <v>-4.1016723831828765e-6</v>
+        <v>-0.0006406194479942587</v>
       </c>
       <c r="G6">
-        <v>0.009830835448227743</v>
+        <v>3.864508276062352e-5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10.000124444130801</v>
+        <v>279.6915314361398</v>
       </c>
       <c r="B7">
-        <v>4.036097838893255</v>
+        <v>250.7212203021309</v>
       </c>
       <c r="C7">
-        <v>4.8785523410901055</v>
+        <v>25.666363990040274</v>
       </c>
       <c r="D7">
-        <v>1.000017856873402</v>
+        <v>1.0000004548764494</v>
       </c>
       <c r="E7">
-        <v>0.00015212775444804197</v>
+        <v>-0.0011721364489737933</v>
       </c>
       <c r="F7">
-        <v>-5.131508263877295e-7</v>
+        <v>-0.0008053495484462737</v>
       </c>
       <c r="G7">
-        <v>0.006660622724152864</v>
+        <v>8.104868368086421e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>10.000183429493466</v>
+        <v>278.23773412200137</v>
       </c>
       <c r="B8">
-        <v>4.6975786980216565</v>
+        <v>249.38111073739552</v>
       </c>
       <c r="C8">
-        <v>4.882956343992242</v>
+        <v>26.46765765924901</v>
       </c>
       <c r="D8">
-        <v>1.0000160484464082</v>
+        <v>0.9999904247079181</v>
       </c>
       <c r="E8">
-        <v>-5.7928826462227314e-5</v>
+        <v>-0.002710351585303418</v>
       </c>
       <c r="F8">
-        <v>1.1843680053769242e-5</v>
+        <v>0.002938176824154026</v>
       </c>
       <c r="G8">
-        <v>0.009585929727302997</v>
+        <v>-4.185541796067589e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>10.00360438768926</v>
+        <v>276.77808155441136</v>
       </c>
       <c r="B9">
-        <v>5.250998147669653</v>
+        <v>248.03559800538125</v>
       </c>
       <c r="C9">
-        <v>4.882793975854239</v>
+        <v>27.232402536370987</v>
       </c>
       <c r="D9">
-        <v>1.000005370530027</v>
+        <v>0.999990288193096</v>
       </c>
       <c r="E9">
-        <v>0.00010860165818782507</v>
+        <v>-0.002724206484899465</v>
       </c>
       <c r="F9">
-        <v>-1.2657594394761168e-5</v>
+        <v>0.0029531965306588376</v>
       </c>
       <c r="G9">
-        <v>0.010162445319317781</v>
+        <v>-4.253863325099407e-5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>10.004871733062869</v>
+        <v>275.31393195912585</v>
       </c>
       <c r="B10">
-        <v>5.875386041268275</v>
+        <v>246.685948634213</v>
       </c>
       <c r="C10">
-        <v>4.887365696028391</v>
+        <v>27.95449677732266</v>
       </c>
       <c r="D10">
-        <v>1.0000075987983599</v>
+        <v>0.9999914729503461</v>
       </c>
       <c r="E10">
-        <v>0.0001035221815157997</v>
+        <v>-0.0027284977796453217</v>
       </c>
       <c r="F10">
-        <v>3.991623611381307e-6</v>
+        <v>0.002956180472119355</v>
       </c>
       <c r="G10">
-        <v>0.009176045351526876</v>
+        <v>-5.2758273237896636e-5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>10.007080990667705</v>
+        <v>273.8426657137152</v>
       </c>
       <c r="B11">
-        <v>6.419055600343179</v>
+        <v>245.32972646992414</v>
       </c>
       <c r="C11">
-        <v>4.891909440950683</v>
+        <v>28.624919184338808</v>
       </c>
       <c r="D11">
-        <v>0.9999999931138924</v>
+        <v>0.9999913211826923</v>
       </c>
       <c r="E11">
-        <v>-3.43827751786443e-5</v>
+        <v>-0.0027456831207443243</v>
       </c>
       <c r="F11">
-        <v>-1.6742359424932268e-7</v>
+        <v>0.002974786232419291</v>
       </c>
       <c r="G11">
-        <v>0.009526059633360402</v>
+        <v>-5.3662144527246794e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>273.216201165982</v>
+      </c>
+      <c r="B12">
+        <v>243.36704717926077</v>
+      </c>
+      <c r="C12">
+        <v>28.900471816090693</v>
+      </c>
+      <c r="D12">
+        <v>0.9999826494503263</v>
+      </c>
+      <c r="E12">
+        <v>-0.0042350332733621645</v>
+      </c>
+      <c r="F12">
+        <v>0.0013510098747625948</v>
+      </c>
+      <c r="G12">
+        <v>-6.993930501774271e-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>274.1383456786186</v>
+      </c>
+      <c r="B13">
+        <v>241.52312392355924</v>
+      </c>
+      <c r="C13">
+        <v>29.145298206487215</v>
+      </c>
+      <c r="D13">
+        <v>0.9999825888129601</v>
+      </c>
+      <c r="E13">
+        <v>-0.003988712955664633</v>
+      </c>
+      <c r="F13">
+        <v>-0.0019911039300059864</v>
+      </c>
+      <c r="G13">
+        <v>-2.9551301414489563e-7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>275.060824628676</v>
+      </c>
+      <c r="B14">
+        <v>239.67851705952938</v>
+      </c>
+      <c r="C14">
+        <v>29.37251571436602</v>
+      </c>
+      <c r="D14">
+        <v>0.9999825103598049</v>
+      </c>
+      <c r="E14">
+        <v>-0.003997808499524649</v>
+      </c>
+      <c r="F14">
+        <v>-0.0019956139183654052</v>
+      </c>
+      <c r="G14">
+        <v>-4.245556404265737e-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>275.98360608533176</v>
+      </c>
+      <c r="B15">
+        <v>237.83328683729007</v>
+      </c>
+      <c r="C15">
+        <v>29.579269297528427</v>
+      </c>
+      <c r="D15">
+        <v>0.9999824557153449</v>
+      </c>
+      <c r="E15">
+        <v>-0.004005908382246306</v>
+      </c>
+      <c r="F15">
+        <v>-0.001999648332591263</v>
+      </c>
+      <c r="G15">
+        <v>-4.218447761727541e-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>276.54949342949976</v>
+      </c>
+      <c r="B16">
+        <v>235.85368177755225</v>
+      </c>
+      <c r="C16">
+        <v>29.704668486896917</v>
+      </c>
+      <c r="D16">
+        <v>0.999985225586961</v>
+      </c>
+      <c r="E16">
+        <v>-0.004168289807640463</v>
+      </c>
+      <c r="F16">
+        <v>-0.0011926510624653654</v>
+      </c>
+      <c r="G16">
+        <v>-3.095332234015571e-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>277.11539502753476</v>
+      </c>
+      <c r="B17">
+        <v>233.87402420955243</v>
+      </c>
+      <c r="C17">
+        <v>29.816056093308653</v>
+      </c>
+      <c r="D17">
+        <v>0.9999852031077563</v>
+      </c>
+      <c r="E17">
+        <v>-0.004172767919152794</v>
+      </c>
+      <c r="F17">
+        <v>-0.0011939220463639635</v>
+      </c>
+      <c r="G17">
+        <v>-3.091139376685519e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>278.8559725898357</v>
+      </c>
+      <c r="B18">
+        <v>232.77408214442124</v>
+      </c>
+      <c r="C18">
+        <v>29.884130365238672</v>
+      </c>
+      <c r="D18">
+        <v>0.9999850781399234</v>
+      </c>
+      <c r="E18">
+        <v>-0.0023061035900441827</v>
+      </c>
+      <c r="F18">
+        <v>-0.0036491560446652136</v>
+      </c>
+      <c r="G18">
+        <v>-3.4870532460744756e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>280.5969934343435</v>
+      </c>
+      <c r="B19">
+        <v>231.6738481282964</v>
+      </c>
+      <c r="C19">
+        <v>29.97339463637721</v>
+      </c>
+      <c r="D19">
+        <v>0.9999850965252023</v>
+      </c>
+      <c r="E19">
+        <v>-0.002302046912362478</v>
+      </c>
+      <c r="F19">
+        <v>-0.0036426980987758614</v>
+      </c>
+      <c r="G19">
+        <v>-3.5510435884551486e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>282.3149452302742</v>
+      </c>
+      <c r="B20">
+        <v>230.58814807146823</v>
+      </c>
+      <c r="C20">
+        <v>29.99999999918431</v>
+      </c>
+      <c r="D20">
+        <v>0.9999976153265429</v>
+      </c>
+      <c r="E20">
+        <v>-0.0017524941218908516</v>
+      </c>
+      <c r="F20">
+        <v>-0.002773978888472913</v>
+      </c>
+      <c r="G20">
+        <v>5.078129202974372e-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>284.0502065304194</v>
+      </c>
+      <c r="B21">
+        <v>229.49152536298482</v>
+      </c>
+      <c r="C21">
+        <v>29.999964947221144</v>
+      </c>
+      <c r="D21">
+        <v>0.9999855745548506</v>
+      </c>
+      <c r="E21">
+        <v>-0.002295170076843545</v>
+      </c>
+      <c r="F21">
+        <v>-0.0036296242949143834</v>
+      </c>
+      <c r="G21">
+        <v>-4.835646611301732e-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>284.8221340724443</v>
+      </c>
+      <c r="B22">
+        <v>227.5896839227783</v>
+      </c>
+      <c r="C22">
+        <v>29.999965025689306</v>
+      </c>
+      <c r="D22">
+        <v>0.9999856456597112</v>
+      </c>
+      <c r="E22">
+        <v>-0.004006778387006008</v>
+      </c>
+      <c r="F22">
+        <v>-0.0016266692094144314</v>
+      </c>
+      <c r="G22">
+        <v>-3.5343538464385795e-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>285.59404180574603</v>
+      </c>
+      <c r="B23">
+        <v>225.68788566709844</v>
+      </c>
+      <c r="C23">
+        <v>29.999965093642807</v>
+      </c>
+      <c r="D23">
+        <v>0.9999856695139555</v>
+      </c>
+      <c r="E23">
+        <v>-0.0040050620544223835</v>
+      </c>
+      <c r="F23">
+        <v>-0.0016259788427479065</v>
+      </c>
+      <c r="G23">
+        <v>-3.483822547266547e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>286.36594732646626</v>
+      </c>
+      <c r="B24">
+        <v>223.78608653440867</v>
+      </c>
+      <c r="C24">
+        <v>29.999965093338584</v>
+      </c>
+      <c r="D24">
+        <v>0.9999856695132432</v>
+      </c>
+      <c r="E24">
+        <v>-0.00400506321399568</v>
+      </c>
+      <c r="F24">
+        <v>-0.0016259739108601488</v>
+      </c>
+      <c r="G24">
+        <v>-3.483797565324299e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>287.86585660525515</v>
+      </c>
+      <c r="B25">
+        <v>222.38475153212462</v>
+      </c>
+      <c r="C25">
+        <v>29.99996502544082</v>
+      </c>
+      <c r="D25">
+        <v>0.9999856129758257</v>
+      </c>
+      <c r="E25">
+        <v>-0.0029389999865357392</v>
+      </c>
+      <c r="F25">
+        <v>-0.003145160916485864</v>
+      </c>
+      <c r="G25">
+        <v>-4.5341955244086554e-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>289.36572442221916</v>
+      </c>
+      <c r="B26">
+        <v>220.98344091637406</v>
+      </c>
+      <c r="C26">
+        <v>29.999965092982933</v>
+      </c>
+      <c r="D26">
+        <v>0.9999856369225333</v>
+      </c>
+      <c r="E26">
+        <v>-0.0029377703317372368</v>
+      </c>
+      <c r="F26">
+        <v>-0.0031438158022701413</v>
+      </c>
+      <c r="G26">
+        <v>-4.450251039043966e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>290.8792328643885</v>
+      </c>
+      <c r="B27">
+        <v>219.5968019832894</v>
+      </c>
+      <c r="C27">
+        <v>29.99996502469335</v>
+      </c>
+      <c r="D27">
+        <v>0.9999856122394767</v>
+      </c>
+      <c r="E27">
+        <v>-0.0029078396060934057</v>
+      </c>
+      <c r="F27">
+        <v>-0.003173257279545075</v>
+      </c>
+      <c r="G27">
+        <v>-4.54908135021874e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>291.4198199809119</v>
+      </c>
+      <c r="B28">
+        <v>217.6168033097472</v>
+      </c>
+      <c r="C28">
+        <v>29.999965025798613</v>
+      </c>
+      <c r="D28">
+        <v>0.9999856534344566</v>
+      </c>
+      <c r="E28">
+        <v>-0.004174892621182102</v>
+      </c>
+      <c r="F28">
+        <v>-0.001140221506654279</v>
+      </c>
+      <c r="G28">
+        <v>-3.146403259876511e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>291.9604194465487</v>
+      </c>
+      <c r="B29">
+        <v>215.63675851451922</v>
+      </c>
+      <c r="C29">
+        <v>29.999964957253347</v>
+      </c>
+      <c r="D29">
+        <v>0.9999856295770173</v>
+      </c>
+      <c r="E29">
+        <v>-0.004176696467483567</v>
+      </c>
+      <c r="F29">
+        <v>-0.001140700248424843</v>
+      </c>
+      <c r="G29">
+        <v>-3.18058754597417e-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>292.4109978214474</v>
+      </c>
+      <c r="B30">
+        <v>213.63438281900616</v>
+      </c>
+      <c r="C30">
+        <v>29.999965025625595</v>
+      </c>
+      <c r="D30">
+        <v>0.9999856561233722</v>
+      </c>
+      <c r="E30">
+        <v>-0.004223157767890688</v>
+      </c>
+      <c r="F30">
+        <v>-0.0009506661812905645</v>
+      </c>
+      <c r="G30">
+        <v>-2.988295781032747e-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>292.86157655677727</v>
+      </c>
+      <c r="B31">
+        <v>211.6320072217314</v>
+      </c>
+      <c r="C31">
+        <v>29.999965025066256</v>
+      </c>
+      <c r="D31">
+        <v>0.9999856561231424</v>
+      </c>
+      <c r="E31">
+        <v>-0.004223157320311773</v>
+      </c>
+      <c r="F31">
+        <v>-0.0009506668921536789</v>
+      </c>
+      <c r="G31">
+        <v>-2.988282197469561e-5</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States4.xlsx
+++ b/src/Quadrotor_States4.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,163 +428,232 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>9.999172355722546</v>
+        <v>10.00050683552213</v>
       </c>
       <c r="B2">
-        <v>2.379955640075383</v>
+        <v>2.3796892461020422</v>
       </c>
       <c r="C2">
-        <v>5.041384330519245</v>
+        <v>5.041021618753779</v>
       </c>
       <c r="D2">
-        <v>0.9999949477478131</v>
+        <v>0.9999949446423946</v>
       </c>
       <c r="E2">
-        <v>0.0035414451243355348</v>
+        <v>0.003542177204887877</v>
       </c>
       <c r="F2">
-        <v>-6.487582173438606e-7</v>
+        <v>2.2709394439493894e-6</v>
       </c>
       <c r="G2">
-        <v>0.00024249646164350766</v>
+        <v>0.00024254160596455456</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>9.999002327007917</v>
+        <v>10.153647546416039</v>
       </c>
       <c r="B3">
-        <v>1.2934428276110512</v>
+        <v>1.2543063119971112</v>
       </c>
       <c r="C3">
-        <v>4.898669125841061</v>
+        <v>4.957031298737465</v>
       </c>
       <c r="D3">
-        <v>0.9999868485296179</v>
+        <v>0.9999856767022831</v>
       </c>
       <c r="E3">
-        <v>-0.0011727377135090408</v>
+        <v>-0.0013939801044034197</v>
       </c>
       <c r="F3">
-        <v>1.4956484798676969e-5</v>
+        <v>0.00015362695735765146</v>
       </c>
       <c r="G3">
-        <v>-0.0011813317725797065</v>
+        <v>0.005974047397497533</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>9.998934549612981</v>
+        <v>10.743760927680265</v>
       </c>
       <c r="B4">
-        <v>2.5251496756955776</v>
+        <v>2.2996523465252876</v>
       </c>
       <c r="C4">
-        <v>4.875467998138549</v>
+        <v>4.677172271713897</v>
       </c>
       <c r="D4">
-        <v>1.000003087143903</v>
+        <v>0.9999814746856629</v>
       </c>
       <c r="E4">
-        <v>-0.001954003513178602</v>
+        <v>-0.0026590003164676116</v>
       </c>
       <c r="F4">
-        <v>-5.9022534810986395e-5</v>
+        <v>0.0012880539505823406</v>
       </c>
       <c r="G4">
-        <v>-0.010401067943599445</v>
+        <v>0.015469408756099777</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>9.998967604009398</v>
+        <v>10.667146350281055</v>
       </c>
       <c r="B5">
-        <v>2.728089600648272</v>
+        <v>2.506286629623606</v>
       </c>
       <c r="C5">
-        <v>4.877155139974427</v>
+        <v>4.616193330039908</v>
       </c>
       <c r="D5">
-        <v>1.000016895561764</v>
+        <v>1.0000076672809024</v>
       </c>
       <c r="E5">
-        <v>0.00044448057516522087</v>
+        <v>-0.0001007994251856962</v>
       </c>
       <c r="F5">
-        <v>3.954462896349672e-6</v>
+        <v>2.3850359402827327e-5</v>
       </c>
       <c r="G5">
-        <v>-0.012429370267994733</v>
+        <v>0.012777567318878172</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>9.999116549724114</v>
+        <v>10.829396140046475</v>
       </c>
       <c r="B6">
-        <v>3.2494710527346684</v>
+        <v>2.951101542845631</v>
       </c>
       <c r="C6">
-        <v>4.881286729800776</v>
+        <v>4.586180683423505</v>
       </c>
       <c r="D6">
-        <v>1.0000022762379714</v>
+        <v>1.0000301951863255</v>
       </c>
       <c r="E6">
-        <v>-0.00030610606507570855</v>
+        <v>0.00010312397304098751</v>
       </c>
       <c r="F6">
-        <v>-9.424593785009157e-6</v>
+        <v>0.000511575750106303</v>
       </c>
       <c r="G6">
-        <v>-0.016037280449753232</v>
+        <v>0.009607338333164439</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>9.999125553151986</v>
+        <v>10.927975791793695</v>
       </c>
       <c r="B7">
-        <v>3.7321417128180037</v>
+        <v>3.3635710131591274</v>
       </c>
       <c r="C7">
-        <v>4.884597649896234</v>
+        <v>4.5738096817072185</v>
       </c>
       <c r="D7">
-        <v>1.000000305663089</v>
+        <v>1.0000032454437715</v>
       </c>
       <c r="E7">
-        <v>0.00024167037542198485</v>
+        <v>6.70302666878019e-5</v>
       </c>
       <c r="F7">
-        <v>1.485797814680214e-6</v>
+        <v>0.00012569311024286645</v>
       </c>
       <c r="G7">
-        <v>-0.014290916740615915</v>
+        <v>0.01302779400446484</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>9.999155156559024</v>
+        <v>10.998858708957686</v>
       </c>
       <c r="B8">
-        <v>4.179445525616135</v>
+        <v>3.7747806254854033</v>
       </c>
       <c r="C8">
-        <v>4.887337002091917</v>
+        <v>4.5660511953427445</v>
       </c>
       <c r="D8">
-        <v>0.999999663369134</v>
+        <v>1.000000004446764</v>
       </c>
       <c r="E8">
-        <v>0.0001830373405841544</v>
+        <v>-1.8967702663516405e-5</v>
       </c>
       <c r="F8">
-        <v>2.1370406601089887e-6</v>
+        <v>0.00019663455853816909</v>
       </c>
       <c r="G8">
-        <v>-0.01439959684528617</v>
+        <v>0.011823394972516521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11.125388782314946</v>
+      </c>
+      <c r="B9">
+        <v>4.134945948514563</v>
+      </c>
+      <c r="C9">
+        <v>4.562079086285203</v>
+      </c>
+      <c r="D9">
+        <v>0.9999998205031532</v>
+      </c>
+      <c r="E9">
+        <v>7.355883478000137e-5</v>
+      </c>
+      <c r="F9">
+        <v>0.00011327072047477038</v>
+      </c>
+      <c r="G9">
+        <v>0.011714643605378224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11.209413186008286</v>
+      </c>
+      <c r="B10">
+        <v>4.519996313704101</v>
+      </c>
+      <c r="C10">
+        <v>4.560863221233914</v>
+      </c>
+      <c r="D10">
+        <v>1.000000168967511</v>
+      </c>
+      <c r="E10">
+        <v>-4.7726173532229646e-5</v>
+      </c>
+      <c r="F10">
+        <v>8.913442320583133e-5</v>
+      </c>
+      <c r="G10">
+        <v>0.011674338335707982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11.293852505199906</v>
+      </c>
+      <c r="B11">
+        <v>4.886208778227954</v>
+      </c>
+      <c r="C11">
+        <v>4.562070269020569</v>
+      </c>
+      <c r="D11">
+        <v>0.9999999050678458</v>
+      </c>
+      <c r="E11">
+        <v>2.227355413349509e-6</v>
+      </c>
+      <c r="F11">
+        <v>1.934804990814697e-5</v>
+      </c>
+      <c r="G11">
+        <v>0.011703021180742226</v>
       </c>
     </row>
   </sheetData>

--- a/src/Quadrotor_States4.xlsx
+++ b/src/Quadrotor_States4.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,232 +428,1382 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>10.00050683552213</v>
+        <v>320.9047081531321</v>
       </c>
       <c r="B2">
-        <v>2.3796892461020422</v>
+        <v>349.77313943275834</v>
       </c>
       <c r="C2">
-        <v>5.041021618753779</v>
+        <v>12.748831285123257</v>
       </c>
       <c r="D2">
-        <v>0.9999949446423946</v>
+        <v>0.9999944172013333</v>
       </c>
       <c r="E2">
-        <v>0.003542177204887877</v>
+        <v>-0.0008531462890562281</v>
       </c>
       <c r="F2">
-        <v>2.2709394439493894e-6</v>
+        <v>-0.0032335986987232497</v>
       </c>
       <c r="G2">
-        <v>0.00024254160596455456</v>
+        <v>-9.766774692248216e-5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>10.153647546416039</v>
+        <v>321.137235239448</v>
       </c>
       <c r="B3">
-        <v>1.2543063119971112</v>
+        <v>350.1706118325885</v>
       </c>
       <c r="C3">
-        <v>4.957031298737465</v>
+        <v>17.043220363989597</v>
       </c>
       <c r="D3">
-        <v>0.9999856767022831</v>
+        <v>1.000000976219892</v>
       </c>
       <c r="E3">
-        <v>-0.0013939801044034197</v>
+        <v>-0.0018752086440356485</v>
       </c>
       <c r="F3">
-        <v>0.00015362695735765146</v>
+        <v>-0.001042766405413102</v>
       </c>
       <c r="G3">
-        <v>0.005974047397497533</v>
+        <v>-2.067324263671512e-5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>10.743760927680265</v>
+        <v>321.4414001464868</v>
       </c>
       <c r="B4">
-        <v>2.2996523465252876</v>
+        <v>350.5617723854784</v>
       </c>
       <c r="C4">
-        <v>4.677172271713897</v>
+        <v>20.961006980461335</v>
       </c>
       <c r="D4">
-        <v>0.9999814746856629</v>
+        <v>1.0000014330059683</v>
       </c>
       <c r="E4">
-        <v>-0.0026590003164676116</v>
+        <v>-0.0012267201363962343</v>
       </c>
       <c r="F4">
-        <v>0.0012880539505823406</v>
+        <v>0.00019870550413961236</v>
       </c>
       <c r="G4">
-        <v>0.015469408756099777</v>
+        <v>0.0008372645944424257</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10.667146350281055</v>
+        <v>321.6925901632674</v>
       </c>
       <c r="B5">
-        <v>2.506286629623606</v>
+        <v>350.9317658562695</v>
       </c>
       <c r="C5">
-        <v>4.616193330039908</v>
+        <v>24.897414974868568</v>
       </c>
       <c r="D5">
-        <v>1.0000076672809024</v>
+        <v>1.000001183420057</v>
       </c>
       <c r="E5">
-        <v>-0.0001007994251856962</v>
+        <v>-0.0011411102862214527</v>
       </c>
       <c r="F5">
-        <v>2.3850359402827327e-5</v>
+        <v>-9.260194906644002e-6</v>
       </c>
       <c r="G5">
-        <v>0.012777567318878172</v>
+        <v>0.00014154201782781337</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>10.829396140046475</v>
+        <v>321.9419991628274</v>
       </c>
       <c r="B6">
-        <v>2.951101542845631</v>
+        <v>350.62146865792073</v>
       </c>
       <c r="C6">
-        <v>4.586180683423505</v>
+        <v>28.309759557762433</v>
       </c>
       <c r="D6">
-        <v>1.0000301951863255</v>
+        <v>1.0000018145744565</v>
       </c>
       <c r="E6">
-        <v>0.00010312397304098751</v>
+        <v>0.0009825392185481446</v>
       </c>
       <c r="F6">
-        <v>0.000511575750106303</v>
+        <v>-3.8432577112325475e-6</v>
       </c>
       <c r="G6">
-        <v>0.009607338333164439</v>
+        <v>-0.00214596708284427</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10.927975791793695</v>
+        <v>321.55656349864</v>
       </c>
       <c r="B7">
-        <v>3.3635710131591274</v>
+        <v>352.9823245464244</v>
       </c>
       <c r="C7">
-        <v>4.5738096817072185</v>
+        <v>29.328407528790738</v>
       </c>
       <c r="D7">
-        <v>1.0000032454437715</v>
+        <v>0.9999729490187598</v>
       </c>
       <c r="E7">
-        <v>6.70302666878019e-5</v>
+        <v>0.007587419631210731</v>
       </c>
       <c r="F7">
-        <v>0.00012569311024286645</v>
+        <v>0.0020911579124806385</v>
       </c>
       <c r="G7">
-        <v>0.01302779400446484</v>
+        <v>7.260566434831135e-5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>10.998858708957686</v>
+        <v>321.0752455537648</v>
       </c>
       <c r="B8">
-        <v>3.7747806254854033</v>
+        <v>355.5663073042941</v>
       </c>
       <c r="C8">
-        <v>4.5660511953427445</v>
+        <v>29.690332662330608</v>
       </c>
       <c r="D8">
-        <v>1.000000004446764</v>
+        <v>0.9999748747643047</v>
       </c>
       <c r="E8">
-        <v>-1.8967702663516405e-5</v>
+        <v>0.007150044890178117</v>
       </c>
       <c r="F8">
-        <v>0.00019663455853816909</v>
+        <v>0.0020850555617296686</v>
       </c>
       <c r="G8">
-        <v>0.011823394972516521</v>
+        <v>1.429861657593727e-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>11.125388782314946</v>
+        <v>321.7193331200726</v>
       </c>
       <c r="B9">
-        <v>4.134945948514563</v>
+        <v>358.3128662939264</v>
       </c>
       <c r="C9">
-        <v>4.562079086285203</v>
+        <v>29.869024095001752</v>
       </c>
       <c r="D9">
-        <v>0.9999998205031532</v>
+        <v>0.9999811089864105</v>
       </c>
       <c r="E9">
-        <v>7.355883478000137e-5</v>
+        <v>0.006119012824607428</v>
       </c>
       <c r="F9">
-        <v>0.00011327072047477038</v>
+        <v>-0.0021743282510828608</v>
       </c>
       <c r="G9">
-        <v>0.011714643605378224</v>
+        <v>2.199396504686403e-6</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>11.209413186008286</v>
+        <v>322.1812782824047</v>
       </c>
       <c r="B10">
-        <v>4.519996313704101</v>
+        <v>361.26493824194233</v>
       </c>
       <c r="C10">
-        <v>4.560863221233914</v>
+        <v>29.762839600851983</v>
       </c>
       <c r="D10">
-        <v>1.000000168967511</v>
+        <v>0.9999865186334238</v>
       </c>
       <c r="E10">
-        <v>-4.7726173532229646e-5</v>
+        <v>0.005441667175122243</v>
       </c>
       <c r="F10">
-        <v>8.913442320583133e-5</v>
+        <v>-0.0010663797730705356</v>
       </c>
       <c r="G10">
-        <v>0.011674338335707982</v>
+        <v>-8.399395270304349e-7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>11.293852505199906</v>
+        <v>321.9090863869942</v>
       </c>
       <c r="B11">
-        <v>4.886208778227954</v>
+        <v>359.4341524006287</v>
       </c>
       <c r="C11">
-        <v>4.562070269020569</v>
+        <v>29.9578736448037</v>
       </c>
       <c r="D11">
-        <v>0.9999999050678458</v>
+        <v>0.9999231557384418</v>
       </c>
       <c r="E11">
-        <v>2.227355413349509e-6</v>
+        <v>-0.01182517863039923</v>
       </c>
       <c r="F11">
-        <v>1.934804990814697e-5</v>
+        <v>0.0016353094626063915</v>
       </c>
       <c r="G11">
-        <v>0.011703021180742226</v>
+        <v>-5.920147051046604e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>322.0355580544242</v>
+      </c>
+      <c r="B12">
+        <v>362.22970638784443</v>
+      </c>
+      <c r="C12">
+        <v>29.810038106931117</v>
+      </c>
+      <c r="D12">
+        <v>0.9999813038854486</v>
+      </c>
+      <c r="E12">
+        <v>0.006483411649977281</v>
+      </c>
+      <c r="F12">
+        <v>-8.18410559586327e-5</v>
+      </c>
+      <c r="G12">
+        <v>5.031455052292875e-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>324.54734898192305</v>
+      </c>
+      <c r="B13">
+        <v>363.03873391861504</v>
+      </c>
+      <c r="C13">
+        <v>29.83073565376123</v>
+      </c>
+      <c r="D13">
+        <v>0.9999683836129686</v>
+      </c>
+      <c r="E13">
+        <v>-0.0016460950838959752</v>
+      </c>
+      <c r="F13">
+        <v>-0.008081901490148948</v>
+      </c>
+      <c r="G13">
+        <v>-1.2473969747354472e-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>326.9613124996007</v>
+      </c>
+      <c r="B14">
+        <v>364.7127094530426</v>
+      </c>
+      <c r="C14">
+        <v>29.838447571748524</v>
+      </c>
+      <c r="D14">
+        <v>0.9999834010542697</v>
+      </c>
+      <c r="E14">
+        <v>0.0016632185215748596</v>
+      </c>
+      <c r="F14">
+        <v>-0.005867186505628762</v>
+      </c>
+      <c r="G14">
+        <v>-5.093785620613154e-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>329.69163444851205</v>
+      </c>
+      <c r="B15">
+        <v>366.0838363204109</v>
+      </c>
+      <c r="C15">
+        <v>29.841145737968027</v>
+      </c>
+      <c r="D15">
+        <v>0.99998608098975</v>
+      </c>
+      <c r="E15">
+        <v>0.0002537730573918289</v>
+      </c>
+      <c r="F15">
+        <v>-0.005604636471592761</v>
+      </c>
+      <c r="G15">
+        <v>-5.758507050820032e-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>332.637917515802</v>
+      </c>
+      <c r="B16">
+        <v>367.2451133793491</v>
+      </c>
+      <c r="C16">
+        <v>29.815306380971776</v>
+      </c>
+      <c r="D16">
+        <v>0.9999887020891138</v>
+      </c>
+      <c r="E16">
+        <v>-0.0005223365375577019</v>
+      </c>
+      <c r="F16">
+        <v>-0.005058218075465724</v>
+      </c>
+      <c r="G16">
+        <v>-5.355594183281697e-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>335.3788611991446</v>
+      </c>
+      <c r="B17">
+        <v>366.340393961613</v>
+      </c>
+      <c r="C17">
+        <v>29.694012734267922</v>
+      </c>
+      <c r="D17">
+        <v>0.9999708552576714</v>
+      </c>
+      <c r="E17">
+        <v>-0.007307928963798537</v>
+      </c>
+      <c r="F17">
+        <v>-0.0031103475127166546</v>
+      </c>
+      <c r="G17">
+        <v>-3.2287540889717467e-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>338.0007484946784</v>
+      </c>
+      <c r="B18">
+        <v>364.97478111802064</v>
+      </c>
+      <c r="C18">
+        <v>29.824053000393647</v>
+      </c>
+      <c r="D18">
+        <v>0.9999742473615527</v>
+      </c>
+      <c r="E18">
+        <v>-0.00720521216605373</v>
+      </c>
+      <c r="F18">
+        <v>-0.002005470168796537</v>
+      </c>
+      <c r="G18">
+        <v>-2.52976403136084e-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>338.8210581357797</v>
+      </c>
+      <c r="B19">
+        <v>362.59192623554134</v>
+      </c>
+      <c r="C19">
+        <v>29.82149193994679</v>
+      </c>
+      <c r="D19">
+        <v>0.9999531204845903</v>
+      </c>
+      <c r="E19">
+        <v>-0.008710933155595811</v>
+      </c>
+      <c r="F19">
+        <v>0.004436261195078049</v>
+      </c>
+      <c r="G19">
+        <v>-7.736788399035762e-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>337.5022573049855</v>
+      </c>
+      <c r="B20">
+        <v>361.0073155504178</v>
+      </c>
+      <c r="C20">
+        <v>29.833735880085214</v>
+      </c>
+      <c r="D20">
+        <v>0.9999359694431696</v>
+      </c>
+      <c r="E20">
+        <v>-0.004066752129195034</v>
+      </c>
+      <c r="F20">
+        <v>0.010377766180749624</v>
+      </c>
+      <c r="G20">
+        <v>-6.489991953357646e-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>339.99647120264933</v>
+      </c>
+      <c r="B21">
+        <v>362.14484050155755</v>
+      </c>
+      <c r="C21">
+        <v>29.862877000975054</v>
+      </c>
+      <c r="D21">
+        <v>0.999974238892288</v>
+      </c>
+      <c r="E21">
+        <v>0.0059237483535341424</v>
+      </c>
+      <c r="F21">
+        <v>-0.004594168075296634</v>
+      </c>
+      <c r="G21">
+        <v>4.445221784427466e-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>342.92843850463635</v>
+      </c>
+      <c r="B22">
+        <v>362.7405398128348</v>
+      </c>
+      <c r="C22">
+        <v>29.818216257770942</v>
+      </c>
+      <c r="D22">
+        <v>0.9999853333009363</v>
+      </c>
+      <c r="E22">
+        <v>0.00275749724618055</v>
+      </c>
+      <c r="F22">
+        <v>-0.005049076894042808</v>
+      </c>
+      <c r="G22">
+        <v>-3.903940547168149e-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>343.6417606630512</v>
+      </c>
+      <c r="B23">
+        <v>360.2408394368663</v>
+      </c>
+      <c r="C23">
+        <v>29.861493864405848</v>
+      </c>
+      <c r="D23">
+        <v>0.9999615685408569</v>
+      </c>
+      <c r="E23">
+        <v>-0.008207081799787621</v>
+      </c>
+      <c r="F23">
+        <v>0.003569626234022219</v>
+      </c>
+      <c r="G23">
+        <v>-5.2754382761866856e-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>343.5413040478681</v>
+      </c>
+      <c r="B24">
+        <v>357.6241834821326</v>
+      </c>
+      <c r="C24">
+        <v>29.83379433300955</v>
+      </c>
+      <c r="D24">
+        <v>0.9999648845176472</v>
+      </c>
+      <c r="E24">
+        <v>-0.0066558968348613004</v>
+      </c>
+      <c r="F24">
+        <v>0.005422965359493352</v>
+      </c>
+      <c r="G24">
+        <v>-4.5673432976172664e-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>345.28186556602054</v>
+      </c>
+      <c r="B25">
+        <v>359.34163689893666</v>
+      </c>
+      <c r="C25">
+        <v>29.856281749995787</v>
+      </c>
+      <c r="D25">
+        <v>0.999956903491443</v>
+      </c>
+      <c r="E25">
+        <v>0.009298202327867518</v>
+      </c>
+      <c r="F25">
+        <v>-0.0019387662432919948</v>
+      </c>
+      <c r="G25">
+        <v>3.872619712461102e-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>344.79911708134375</v>
+      </c>
+      <c r="B26">
+        <v>361.45683344782975</v>
+      </c>
+      <c r="C26">
+        <v>29.650346420060732</v>
+      </c>
+      <c r="D26">
+        <v>0.9999488803578527</v>
+      </c>
+      <c r="E26">
+        <v>0.00840707714807103</v>
+      </c>
+      <c r="F26">
+        <v>0.005895281206035047</v>
+      </c>
+      <c r="G26">
+        <v>6.787592106206062e-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>343.9132731091014</v>
+      </c>
+      <c r="B27">
+        <v>363.68945590156216</v>
+      </c>
+      <c r="C27">
+        <v>29.743716297846813</v>
+      </c>
+      <c r="D27">
+        <v>0.999959983469512</v>
+      </c>
+      <c r="E27">
+        <v>0.006973190621689069</v>
+      </c>
+      <c r="F27">
+        <v>0.00596387936221321</v>
+      </c>
+      <c r="G27">
+        <v>2.2680952721845425e-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>342.78229363692094</v>
+      </c>
+      <c r="B28">
+        <v>366.04599744302715</v>
+      </c>
+      <c r="C28">
+        <v>29.839718912178174</v>
+      </c>
+      <c r="D28">
+        <v>0.9999716718603268</v>
+      </c>
+      <c r="E28">
+        <v>0.00573127971054234</v>
+      </c>
+      <c r="F28">
+        <v>0.005369276536345166</v>
+      </c>
+      <c r="G28">
+        <v>1.041943565712329e-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>341.39228738908787</v>
+      </c>
+      <c r="B29">
+        <v>368.47126100857247</v>
+      </c>
+      <c r="C29">
+        <v>29.85884947449912</v>
+      </c>
+      <c r="D29">
+        <v>0.9999788770387799</v>
+      </c>
+      <c r="E29">
+        <v>0.0046585760659357345</v>
+      </c>
+      <c r="F29">
+        <v>0.005021259672293502</v>
+      </c>
+      <c r="G29">
+        <v>1.8468052831351844e-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>340.10348645476734</v>
+      </c>
+      <c r="B30">
+        <v>371.16077129140905</v>
+      </c>
+      <c r="C30">
+        <v>29.80978818878323</v>
+      </c>
+      <c r="D30">
+        <v>0.9999854928366934</v>
+      </c>
+      <c r="E30">
+        <v>0.0045113777463810035</v>
+      </c>
+      <c r="F30">
+        <v>0.003548182270001287</v>
+      </c>
+      <c r="G30">
+        <v>-1.294613569807382e-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>342.36938124248695</v>
+      </c>
+      <c r="B31">
+        <v>371.3527021344363</v>
+      </c>
+      <c r="C31">
+        <v>29.832270467779107</v>
+      </c>
+      <c r="D31">
+        <v>0.9999419630402206</v>
+      </c>
+      <c r="E31">
+        <v>-0.0050159922779372135</v>
+      </c>
+      <c r="F31">
+        <v>-0.009340678307959966</v>
+      </c>
+      <c r="G31">
+        <v>-2.1657870691589475e-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>340.02068473392353</v>
+      </c>
+      <c r="B32">
+        <v>371.23564283804154</v>
+      </c>
+      <c r="C32">
+        <v>29.8247138729514</v>
+      </c>
+      <c r="D32">
+        <v>0.9999556847807534</v>
+      </c>
+      <c r="E32">
+        <v>-0.004760900989647802</v>
+      </c>
+      <c r="F32">
+        <v>0.008235406113077192</v>
+      </c>
+      <c r="G32">
+        <v>-4.962548262180221e-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>337.3782709821012</v>
+      </c>
+      <c r="B33">
+        <v>371.496183134024</v>
+      </c>
+      <c r="C33">
+        <v>29.855904896266072</v>
+      </c>
+      <c r="D33">
+        <v>0.999971586310321</v>
+      </c>
+      <c r="E33">
+        <v>-0.0024534233188472426</v>
+      </c>
+      <c r="F33">
+        <v>0.0074057813369835055</v>
+      </c>
+      <c r="G33">
+        <v>-2.1802331172276504e-5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>334.62990773587245</v>
+      </c>
+      <c r="B34">
+        <v>371.1436900772626</v>
+      </c>
+      <c r="C34">
+        <v>29.867521515071864</v>
+      </c>
+      <c r="D34">
+        <v>0.999976030464858</v>
+      </c>
+      <c r="E34">
+        <v>-0.003937061672380404</v>
+      </c>
+      <c r="F34">
+        <v>0.006044765694258548</v>
+      </c>
+      <c r="G34">
+        <v>-2.1883541777059393e-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>331.64712011053746</v>
+      </c>
+      <c r="B35">
+        <v>371.13611659281366</v>
+      </c>
+      <c r="C35">
+        <v>29.741159438468227</v>
+      </c>
+      <c r="D35">
+        <v>0.9999850320842811</v>
+      </c>
+      <c r="E35">
+        <v>-0.0018891196019566933</v>
+      </c>
+      <c r="F35">
+        <v>0.005488009997693816</v>
+      </c>
+      <c r="G35">
+        <v>-1.017837360254448e-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>333.48326288696916</v>
+      </c>
+      <c r="B36">
+        <v>371.0439552040481</v>
+      </c>
+      <c r="C36">
+        <v>29.948679289771615</v>
+      </c>
+      <c r="D36">
+        <v>0.9999199477986618</v>
+      </c>
+      <c r="E36">
+        <v>-0.0017362719200670154</v>
+      </c>
+      <c r="F36">
+        <v>-0.01208188534379654</v>
+      </c>
+      <c r="G36">
+        <v>-2.6238167138945535e-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>330.84460902312213</v>
+      </c>
+      <c r="B37">
+        <v>372.04402713201495</v>
+      </c>
+      <c r="C37">
+        <v>29.82147626678134</v>
+      </c>
+      <c r="D37">
+        <v>0.9999820087245176</v>
+      </c>
+      <c r="E37">
+        <v>0.002359324751718321</v>
+      </c>
+      <c r="F37">
+        <v>0.005906078171867248</v>
+      </c>
+      <c r="G37">
+        <v>-4.034402972982097e-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>331.0621792922379</v>
+      </c>
+      <c r="B38">
+        <v>374.60758028813376</v>
+      </c>
+      <c r="C38">
+        <v>29.83680787566337</v>
+      </c>
+      <c r="D38">
+        <v>0.9999647783715079</v>
+      </c>
+      <c r="E38">
+        <v>0.007058417118945457</v>
+      </c>
+      <c r="F38">
+        <v>-0.005002224042317976</v>
+      </c>
+      <c r="G38">
+        <v>1.2702170372925601e-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>332.2768987030203</v>
+      </c>
+      <c r="B39">
+        <v>376.9002298716157</v>
+      </c>
+      <c r="C39">
+        <v>29.856117849165166</v>
+      </c>
+      <c r="D39">
+        <v>0.9999668569521168</v>
+      </c>
+      <c r="E39">
+        <v>0.004467420703814614</v>
+      </c>
+      <c r="F39">
+        <v>-0.007139992545018275</v>
+      </c>
+      <c r="G39">
+        <v>3.485412602470334e-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>334.60086579209366</v>
+      </c>
+      <c r="B40">
+        <v>377.4224980604832</v>
+      </c>
+      <c r="C40">
+        <v>29.89790671176785</v>
+      </c>
+      <c r="D40">
+        <v>0.9999527151656302</v>
+      </c>
+      <c r="E40">
+        <v>-0.002521557086230917</v>
+      </c>
+      <c r="F40">
+        <v>-0.009340992718306297</v>
+      </c>
+      <c r="G40">
+        <v>-1.763727305913084e-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>336.65573845138</v>
+      </c>
+      <c r="B41">
+        <v>379.3356400621201</v>
+      </c>
+      <c r="C41">
+        <v>29.86095904252845</v>
+      </c>
+      <c r="D41">
+        <v>0.9999791363021988</v>
+      </c>
+      <c r="E41">
+        <v>0.0027592231014881567</v>
+      </c>
+      <c r="F41">
+        <v>-0.006207845958393068</v>
+      </c>
+      <c r="G41">
+        <v>-3.682167392661447e-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>337.58424798822966</v>
+      </c>
+      <c r="B42">
+        <v>382.2057400629829</v>
+      </c>
+      <c r="C42">
+        <v>29.832251266969802</v>
+      </c>
+      <c r="D42">
+        <v>0.999986655941365</v>
+      </c>
+      <c r="E42">
+        <v>0.0054173950479538885</v>
+      </c>
+      <c r="F42">
+        <v>-0.0009978726271693272</v>
+      </c>
+      <c r="G42">
+        <v>-1.263987638557855e-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>336.89541566728957</v>
+      </c>
+      <c r="B43">
+        <v>385.1239158939154</v>
+      </c>
+      <c r="C43">
+        <v>29.830535195711924</v>
+      </c>
+      <c r="D43">
+        <v>0.9999818374001342</v>
+      </c>
+      <c r="E43">
+        <v>0.004282755495885734</v>
+      </c>
+      <c r="F43">
+        <v>0.004722869466894631</v>
+      </c>
+      <c r="G43">
+        <v>-6.167497001820196e-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>338.88965345056374</v>
+      </c>
+      <c r="B44">
+        <v>387.51503881703013</v>
+      </c>
+      <c r="C44">
+        <v>29.813168838085474</v>
+      </c>
+      <c r="D44">
+        <v>0.9999856548421983</v>
+      </c>
+      <c r="E44">
+        <v>0.0014971483763646454</v>
+      </c>
+      <c r="F44">
+        <v>-0.005490713896760596</v>
+      </c>
+      <c r="G44">
+        <v>-4.923447397327142e-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>336.69390764153036</v>
+      </c>
+      <c r="B45">
+        <v>388.0269432568815</v>
+      </c>
+      <c r="C45">
+        <v>29.899216930618312</v>
+      </c>
+      <c r="D45">
+        <v>0.9999393307375105</v>
+      </c>
+      <c r="E45">
+        <v>-0.00504603409426823</v>
+      </c>
+      <c r="F45">
+        <v>0.009654779696103845</v>
+      </c>
+      <c r="G45">
+        <v>-6.677803732112104e-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>339.19759227431695</v>
+      </c>
+      <c r="B46">
+        <v>388.6500328725398</v>
+      </c>
+      <c r="C46">
+        <v>29.873609453613078</v>
+      </c>
+      <c r="D46">
+        <v>0.9999612786842558</v>
+      </c>
+      <c r="E46">
+        <v>-0.0035683815139347713</v>
+      </c>
+      <c r="F46">
+        <v>-0.008137443259459767</v>
+      </c>
+      <c r="G46">
+        <v>-2.672998527756685e-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>341.3562731882252</v>
+      </c>
+      <c r="B47">
+        <v>387.6422985620909</v>
+      </c>
+      <c r="C47">
+        <v>29.68027571359718</v>
+      </c>
+      <c r="D47">
+        <v>0.9999535871916903</v>
+      </c>
+      <c r="E47">
+        <v>-0.008159544837716904</v>
+      </c>
+      <c r="F47">
+        <v>-0.005110382279382638</v>
+      </c>
+      <c r="G47">
+        <v>-4.5783347012049255e-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>340.00250211251307</v>
+      </c>
+      <c r="B48">
+        <v>389.7024240169804</v>
+      </c>
+      <c r="C48">
+        <v>29.877499717649428</v>
+      </c>
+      <c r="D48">
+        <v>0.999963962791415</v>
+      </c>
+      <c r="E48">
+        <v>0.003911719473895192</v>
+      </c>
+      <c r="F48">
+        <v>0.0077705403199236295</v>
+      </c>
+      <c r="G48">
+        <v>5.551644567172128e-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>340.4539036764391</v>
+      </c>
+      <c r="B49">
+        <v>392.6056049595479</v>
+      </c>
+      <c r="C49">
+        <v>29.906578505021848</v>
+      </c>
+      <c r="D49">
+        <v>0.9999848084886478</v>
+      </c>
+      <c r="E49">
+        <v>0.005867343526185269</v>
+      </c>
+      <c r="F49">
+        <v>-0.00014369179325493726</v>
+      </c>
+      <c r="G49">
+        <v>6.13161263401071e-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>340.82412273509476</v>
+      </c>
+      <c r="B50">
+        <v>395.67039465301934</v>
+      </c>
+      <c r="C50">
+        <v>29.867033197964467</v>
+      </c>
+      <c r="D50">
+        <v>0.9999885209106955</v>
+      </c>
+      <c r="E50">
+        <v>0.0051322709368669265</v>
+      </c>
+      <c r="F50">
+        <v>0.00016617163592874153</v>
+      </c>
+      <c r="G50">
+        <v>-1.7525221968556648e-6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>341.0797905806988</v>
+      </c>
+      <c r="B51">
+        <v>398.8749003355263</v>
+      </c>
+      <c r="C51">
+        <v>29.819104920660646</v>
+      </c>
+      <c r="D51">
+        <v>0.9999913531490804</v>
+      </c>
+      <c r="E51">
+        <v>0.004463520782239765</v>
+      </c>
+      <c r="F51">
+        <v>0.0005258496410695852</v>
+      </c>
+      <c r="G51">
+        <v>-2.3352020103383905e-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>339.50204123260056</v>
+      </c>
+      <c r="B52">
+        <v>401.5071927805324</v>
+      </c>
+      <c r="C52">
+        <v>29.79432585163964</v>
+      </c>
+      <c r="D52">
+        <v>0.999979555451093</v>
+      </c>
+      <c r="E52">
+        <v>0.0013975173207101857</v>
+      </c>
+      <c r="F52">
+        <v>0.006576484619882864</v>
+      </c>
+      <c r="G52">
+        <v>-6.681726867942598e-6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>341.90965312563014</v>
+      </c>
+      <c r="B53">
+        <v>402.8643227293423</v>
+      </c>
+      <c r="C53">
+        <v>29.85862819465989</v>
+      </c>
+      <c r="D53">
+        <v>0.9999596261867866</v>
+      </c>
+      <c r="E53">
+        <v>-0.0032351739274126237</v>
+      </c>
+      <c r="F53">
+        <v>-0.008423251783275399</v>
+      </c>
+      <c r="G53">
+        <v>-2.0487482424108628e-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>344.274979635066</v>
+      </c>
+      <c r="B54">
+        <v>404.8425420274867</v>
+      </c>
+      <c r="C54">
+        <v>29.809896289092915</v>
+      </c>
+      <c r="D54">
+        <v>0.9999821588359407</v>
+      </c>
+      <c r="E54">
+        <v>-0.00038021163138037635</v>
+      </c>
+      <c r="F54">
+        <v>-0.006303335916789559</v>
+      </c>
+      <c r="G54">
+        <v>-7.630252443251681e-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>342.15036134995404</v>
+      </c>
+      <c r="B55">
+        <v>405.926064177349</v>
+      </c>
+      <c r="C55">
+        <v>29.853024575510595</v>
+      </c>
+      <c r="D55">
+        <v>0.9999441235083255</v>
+      </c>
+      <c r="E55">
+        <v>-0.0032234697974117417</v>
+      </c>
+      <c r="F55">
+        <v>0.010017153112035153</v>
+      </c>
+      <c r="G55">
+        <v>-4.9219925854368796e-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>343.9095463463708</v>
+      </c>
+      <c r="B56">
+        <v>404.79154122265913</v>
+      </c>
+      <c r="C56">
+        <v>29.80538073388564</v>
+      </c>
+      <c r="D56">
+        <v>0.9999329356507755</v>
+      </c>
+      <c r="E56">
+        <v>-0.009995124897106973</v>
+      </c>
+      <c r="F56">
+        <v>-0.005209749628786874</v>
+      </c>
+      <c r="G56">
+        <v>-3.0490600803816143e-5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>345.10884478386635</v>
+      </c>
+      <c r="B57">
+        <v>407.50265949172336</v>
+      </c>
+      <c r="C57">
+        <v>29.652501649087977</v>
+      </c>
+      <c r="D57">
+        <v>0.9999857148262954</v>
+      </c>
+      <c r="E57">
+        <v>0.005264988774746834</v>
+      </c>
+      <c r="F57">
+        <v>-0.0021591197811836973</v>
+      </c>
+      <c r="G57">
+        <v>-1.156545025829717e-6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>344.77854703396696</v>
+      </c>
+      <c r="B58">
+        <v>410.49095869008073</v>
+      </c>
+      <c r="C58">
+        <v>29.718307725035704</v>
+      </c>
+      <c r="D58">
+        <v>0.9999832478152437</v>
+      </c>
+      <c r="E58">
+        <v>0.005002412124247736</v>
+      </c>
+      <c r="F58">
+        <v>0.003544043641054568</v>
+      </c>
+      <c r="G58">
+        <v>-4.3024463671532044e-7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>345.01877173133505</v>
+      </c>
+      <c r="B59">
+        <v>413.6791105764874</v>
+      </c>
+      <c r="C59">
+        <v>29.779988697412474</v>
+      </c>
+      <c r="D59">
+        <v>0.9999908505634761</v>
+      </c>
+      <c r="E59">
+        <v>0.0045525100174228705</v>
+      </c>
+      <c r="F59">
+        <v>0.0007645286763429753</v>
+      </c>
+      <c r="G59">
+        <v>-2.296158811459224e-6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>347.2382550418723</v>
+      </c>
+      <c r="B60">
+        <v>415.8823950794847</v>
+      </c>
+      <c r="C60">
+        <v>29.823706007750282</v>
+      </c>
+      <c r="D60">
+        <v>0.9999832296459171</v>
+      </c>
+      <c r="E60">
+        <v>8.623520482250393e-5</v>
+      </c>
+      <c r="F60">
+        <v>-0.006127015497864822</v>
+      </c>
+      <c r="G60">
+        <v>-6.683470833165323e-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>349.16102713217174</v>
+      </c>
+      <c r="B61">
+        <v>418.51486245630065</v>
+      </c>
+      <c r="C61">
+        <v>29.83019606623315</v>
+      </c>
+      <c r="D61">
+        <v>0.9999902925417216</v>
+      </c>
+      <c r="E61">
+        <v>0.0021458805235669448</v>
+      </c>
+      <c r="F61">
+        <v>-0.005368283294140349</v>
+      </c>
+      <c r="G61">
+        <v>0.0003858810146673488</v>
       </c>
     </row>
   </sheetData>
